--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734070.4669198423</v>
+        <v>-736738.7630445787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9508688.652655551</v>
+        <v>9508688.652655557</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,28 +1154,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>6.876045741711437</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.33498035419292</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>333.730329710857</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.801100346801</v>
       </c>
       <c r="I11" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.6179478666978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.0006092864651</v>
       </c>
       <c r="U11" t="n">
-        <v>210.9283967152348</v>
+        <v>250.9966822117284</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I12" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.53204196820208</v>
+        <v>166.0342763518484</v>
       </c>
       <c r="H13" t="n">
         <v>144.8303039577586</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.31290891630832</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9166010944994</v>
       </c>
       <c r="T13" t="n">
         <v>219.5851311273101</v>
@@ -1585,13 +1585,13 @@
         <v>286.2123001015848</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>191.0230796367909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,25 +1607,25 @@
         <v>380.8278017838782</v>
       </c>
       <c r="C14" t="n">
-        <v>363.3668518914051</v>
+        <v>363.3668518914052</v>
       </c>
       <c r="D14" t="n">
-        <v>352.7770017410805</v>
+        <v>352.7770017410806</v>
       </c>
       <c r="E14" t="n">
-        <v>49.63095745460112</v>
+        <v>380.0243301926594</v>
       </c>
       <c r="F14" t="n">
-        <v>404.970005862109</v>
+        <v>404.9700058621091</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0345639341812</v>
       </c>
       <c r="H14" t="n">
-        <v>292.8950604671986</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.39869016944954</v>
+        <v>40.39869016944952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>107.7119079870955</v>
       </c>
       <c r="T14" t="n">
-        <v>202.0945694068627</v>
+        <v>202.0945694068628</v>
       </c>
       <c r="U14" t="n">
-        <v>249.090642332126</v>
+        <v>128.4039847176147</v>
       </c>
       <c r="V14" t="n">
-        <v>325.8462185905325</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>347.3349288378106</v>
+        <v>347.3349288378107</v>
       </c>
       <c r="X14" t="n">
-        <v>367.8250607988666</v>
+        <v>367.8250607988667</v>
       </c>
       <c r="Y14" t="n">
         <v>384.3318987764512</v>
@@ -1704,7 +1704,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I15" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.9259403023349</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.3407812190254</v>
+        <v>165.3407812190255</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.5279227669668</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>143.5150081433288</v>
+        <v>143.5150081433289</v>
       </c>
       <c r="G16" t="n">
-        <v>164.128236472246</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.9242640781561</v>
+        <v>142.9242640781562</v>
       </c>
       <c r="I16" t="n">
-        <v>94.70103917613771</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.40686903670594</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>188.010561214897</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.6790912477077</v>
       </c>
       <c r="U16" t="n">
-        <v>99.92873383460488</v>
+        <v>239.8947039495091</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>250.2316034442256</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>284.6169584569886</v>
       </c>
       <c r="X16" t="n">
-        <v>223.8036155094347</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>216.6786134724924</v>
@@ -1844,13 +1844,13 @@
         <v>335.3756939403951</v>
       </c>
       <c r="C17" t="n">
-        <v>255.2150073538945</v>
+        <v>317.9147440479221</v>
       </c>
       <c r="D17" t="n">
         <v>307.3248938975975</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5722223491763</v>
+        <v>334.1322857987597</v>
       </c>
       <c r="F17" t="n">
         <v>359.517898018626</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.25980014361245</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>156.6424615633797</v>
@@ -1941,7 +1941,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I18" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>101.2573252951269</v>
       </c>
       <c r="E19" t="n">
-        <v>99.07581492348373</v>
+        <v>99.07581492348375</v>
       </c>
       <c r="F19" t="n">
-        <v>98.06290029984581</v>
+        <v>98.06290029984582</v>
       </c>
       <c r="G19" t="n">
         <v>118.676128628763</v>
       </c>
       <c r="H19" t="n">
-        <v>97.47215623467312</v>
+        <v>97.47215623467314</v>
       </c>
       <c r="I19" t="n">
-        <v>49.24893133265469</v>
+        <v>49.24893133265468</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95476119322292</v>
+        <v>41.95476119322288</v>
       </c>
       <c r="S19" t="n">
         <v>142.5584533714139</v>
@@ -2081,10 +2081,10 @@
         <v>335.3756939403952</v>
       </c>
       <c r="C20" t="n">
-        <v>317.9147440479221</v>
+        <v>317.9147440479222</v>
       </c>
       <c r="D20" t="n">
-        <v>307.3248938975976</v>
+        <v>244.6251572035679</v>
       </c>
       <c r="E20" t="n">
         <v>334.5722223491764</v>
@@ -2096,7 +2096,7 @@
         <v>363.5824560906981</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4429526237156</v>
+        <v>247.4429526237157</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T20" t="n">
-        <v>156.6424615633797</v>
+        <v>156.6424615633798</v>
       </c>
       <c r="U20" t="n">
         <v>203.638534488643</v>
@@ -2141,13 +2141,13 @@
         <v>280.3941107470495</v>
       </c>
       <c r="W20" t="n">
-        <v>239.1830843002998</v>
+        <v>301.8828209943276</v>
       </c>
       <c r="X20" t="n">
         <v>322.3729529553837</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.8797909329681</v>
+        <v>338.8797909329682</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I21" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C22" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2573252951269</v>
+        <v>101.257325295127</v>
       </c>
       <c r="E22" t="n">
-        <v>99.07581492348376</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F22" t="n">
-        <v>98.06290029984584</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G22" t="n">
-        <v>118.676128628763</v>
+        <v>118.676128628762</v>
       </c>
       <c r="H22" t="n">
-        <v>97.47215623467315</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24893133265472</v>
+        <v>49.24893133265473</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322294</v>
       </c>
       <c r="S22" t="n">
         <v>142.558453371414</v>
@@ -2293,7 +2293,7 @@
         <v>172.2269834042247</v>
       </c>
       <c r="U22" t="n">
-        <v>238.8541523784994</v>
+        <v>238.8541523784995</v>
       </c>
       <c r="V22" t="n">
         <v>204.7794956007426</v>
@@ -2302,7 +2302,7 @@
         <v>239.1648506135056</v>
       </c>
       <c r="X22" t="n">
-        <v>178.3515076659517</v>
+        <v>178.3515076659518</v>
       </c>
       <c r="Y22" t="n">
         <v>171.2265056290094</v>
@@ -2318,7 +2318,7 @@
         <v>335.3756939403952</v>
       </c>
       <c r="C23" t="n">
-        <v>317.9147440479221</v>
+        <v>317.9147440479222</v>
       </c>
       <c r="D23" t="n">
         <v>307.3248938975976</v>
@@ -2333,7 +2333,7 @@
         <v>363.5824560906981</v>
       </c>
       <c r="H23" t="n">
-        <v>247.4429526237156</v>
+        <v>247.4429526237157</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T23" t="n">
-        <v>156.6424615633797</v>
+        <v>156.6424615633798</v>
       </c>
       <c r="U23" t="n">
         <v>203.638534488643</v>
@@ -2384,7 +2384,7 @@
         <v>322.3729529553837</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.8797909329681</v>
+        <v>338.8797909329682</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I24" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C25" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2573252951269</v>
+        <v>101.257325295127</v>
       </c>
       <c r="E25" t="n">
-        <v>99.07581492348376</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F25" t="n">
-        <v>98.06290029984584</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G25" t="n">
-        <v>118.676128628763</v>
+        <v>118.6761286287631</v>
       </c>
       <c r="H25" t="n">
-        <v>97.47215623467315</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24893133265472</v>
+        <v>49.24893133265473</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322294</v>
       </c>
       <c r="S25" t="n">
         <v>142.558453371414</v>
@@ -2530,7 +2530,7 @@
         <v>172.2269834042247</v>
       </c>
       <c r="U25" t="n">
-        <v>238.8541523784994</v>
+        <v>238.8541523784995</v>
       </c>
       <c r="V25" t="n">
         <v>204.7794956007426</v>
@@ -2539,7 +2539,7 @@
         <v>239.1648506135056</v>
       </c>
       <c r="X25" t="n">
-        <v>178.3515076659517</v>
+        <v>178.3515076659518</v>
       </c>
       <c r="Y25" t="n">
         <v>171.2265056290094</v>
@@ -2555,7 +2555,7 @@
         <v>335.3756939403952</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9147440479221</v>
+        <v>317.9147440479222</v>
       </c>
       <c r="D26" t="n">
         <v>307.3248938975976</v>
@@ -2570,7 +2570,7 @@
         <v>363.5824560906981</v>
       </c>
       <c r="H26" t="n">
-        <v>247.4429526237156</v>
+        <v>247.4429526237157</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T26" t="n">
-        <v>156.6424615633797</v>
+        <v>156.6424615633798</v>
       </c>
       <c r="U26" t="n">
         <v>203.638534488643</v>
@@ -2621,7 +2621,7 @@
         <v>322.3729529553837</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8797909329681</v>
+        <v>338.8797909329682</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I27" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D28" t="n">
-        <v>101.2573252951269</v>
+        <v>101.257325295127</v>
       </c>
       <c r="E28" t="n">
-        <v>99.07581492348376</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F28" t="n">
-        <v>98.06290029984584</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G28" t="n">
         <v>118.676128628763</v>
       </c>
       <c r="H28" t="n">
-        <v>97.47215623467315</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I28" t="n">
-        <v>49.24893133265428</v>
+        <v>49.24893133265473</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322294</v>
       </c>
       <c r="S28" t="n">
         <v>142.558453371414</v>
@@ -2767,7 +2767,7 @@
         <v>172.2269834042247</v>
       </c>
       <c r="U28" t="n">
-        <v>238.8541523784994</v>
+        <v>238.8541523784995</v>
       </c>
       <c r="V28" t="n">
         <v>204.7794956007426</v>
@@ -2776,7 +2776,7 @@
         <v>239.1648506135056</v>
       </c>
       <c r="X28" t="n">
-        <v>178.3515076659517</v>
+        <v>178.3515076659518</v>
       </c>
       <c r="Y28" t="n">
         <v>171.2265056290094</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.1658400232149</v>
+        <v>64.16584002321486</v>
       </c>
       <c r="T29" t="n">
         <v>158.5485014429821</v>
@@ -2889,7 +2889,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I30" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>134.3798723384543</v>
       </c>
       <c r="C31" t="n">
-        <v>76.35319769351996</v>
+        <v>121.7947132551448</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1633651747293</v>
+        <v>57.72184961310534</v>
       </c>
       <c r="E31" t="n">
         <v>100.9818548030862</v>
@@ -2965,10 +2965,10 @@
         <v>120.5821685083654</v>
       </c>
       <c r="H31" t="n">
-        <v>99.37819611427557</v>
+        <v>99.37819611427555</v>
       </c>
       <c r="I31" t="n">
-        <v>51.15497121225712</v>
+        <v>51.1549712122571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86080107282534</v>
+        <v>43.8608010728253</v>
       </c>
       <c r="S31" t="n">
         <v>144.4644932510164</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361249</v>
       </c>
       <c r="T32" t="n">
         <v>156.6424615633798</v>
@@ -3126,7 +3126,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I33" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D34" t="n">
         <v>101.257325295127</v>
       </c>
       <c r="E34" t="n">
-        <v>99.07581492348378</v>
+        <v>99.0758149234838</v>
       </c>
       <c r="F34" t="n">
-        <v>98.06290029984585</v>
+        <v>98.06290029984588</v>
       </c>
       <c r="G34" t="n">
-        <v>118.676128628763</v>
+        <v>118.6761286287631</v>
       </c>
       <c r="H34" t="n">
-        <v>97.47215623467318</v>
+        <v>97.47215623467319</v>
       </c>
       <c r="I34" t="n">
-        <v>49.24893133265473</v>
+        <v>49.24893133265474</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95476119322298</v>
+        <v>41.95476119322294</v>
       </c>
       <c r="S34" t="n">
         <v>142.558453371414</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T35" t="n">
         <v>156.6424615633797</v>
@@ -3363,7 +3363,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I36" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>101.2573252951269</v>
       </c>
       <c r="E37" t="n">
-        <v>99.07581492348375</v>
+        <v>99.07581492348376</v>
       </c>
       <c r="F37" t="n">
-        <v>98.06290029984582</v>
+        <v>98.06290029984584</v>
       </c>
       <c r="G37" t="n">
         <v>118.676128628763</v>
@@ -3442,7 +3442,7 @@
         <v>97.47215623467315</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24893133265471</v>
+        <v>49.2489313326547</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95476119322292</v>
+        <v>41.95476119322291</v>
       </c>
       <c r="S37" t="n">
-        <v>142.5584533714139</v>
+        <v>142.558453371414</v>
       </c>
       <c r="T37" t="n">
-        <v>172.2269834042246</v>
+        <v>172.2269834042257</v>
       </c>
       <c r="U37" t="n">
         <v>238.8541523784994</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361245</v>
       </c>
       <c r="T38" t="n">
         <v>156.6424615633797</v>
@@ -3600,7 +3600,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I39" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>97.47215623467315</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24893133265472</v>
+        <v>49.24893133265471</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322292</v>
       </c>
       <c r="S40" t="n">
         <v>142.558453371414</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.25980014361247</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T41" t="n">
         <v>156.6424615633797</v>
@@ -3837,7 +3837,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I42" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>97.47215623467315</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24893133265472</v>
+        <v>49.2489313326547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322291</v>
       </c>
       <c r="S43" t="n">
         <v>142.558453371414</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.25980014361247</v>
+        <v>62.25980014361243</v>
       </c>
       <c r="T44" t="n">
         <v>156.6424615633797</v>
@@ -4074,7 +4074,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I45" t="n">
-        <v>9.039237078228098</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>97.47215623467315</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24893133265472</v>
+        <v>49.2489313326547</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322291</v>
       </c>
       <c r="S46" t="n">
         <v>142.558453371414</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>20.97193951221988</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4884,31 +4884,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L9" t="n">
-        <v>14.16465422792556</v>
-      </c>
-      <c r="M9" t="n">
-        <v>20.97193951221988</v>
-      </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
         <v>20.55868221764227</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>24.75525293138463</v>
+      </c>
+      <c r="C10" t="n">
         <v>21.38658590694733</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.44108515774386</v>
       </c>
       <c r="D10" t="n">
         <v>14.44108515774386</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G10" t="n">
         <v>7.495584408540386</v>
@@ -4966,13 +4966,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.694060811982</v>
+        <v>1955.529705347511</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.694060811982</v>
+        <v>1955.529705347511</v>
       </c>
       <c r="D11" t="n">
         <v>1618.428362205231</v>
@@ -5036,13 +5036,13 @@
         <v>108.7837965743648</v>
       </c>
       <c r="I11" t="n">
-        <v>66.05174601976685</v>
+        <v>66.0517460197669</v>
       </c>
       <c r="J11" t="n">
-        <v>253.3446393210791</v>
+        <v>253.3446393210788</v>
       </c>
       <c r="K11" t="n">
-        <v>584.786653951707</v>
+        <v>584.7866539517067</v>
       </c>
       <c r="L11" t="n">
         <v>1032.871543066687</v>
@@ -5051,40 +5051,40 @@
         <v>1563.12175636625</v>
       </c>
       <c r="N11" t="n">
-        <v>2106.565780855363</v>
+        <v>2106.565780855364</v>
       </c>
       <c r="O11" t="n">
-        <v>2606.389301674746</v>
+        <v>2606.389301674748</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.476112009288</v>
+        <v>2998.47611200929</v>
       </c>
       <c r="Q11" t="n">
-        <v>3244.744231117987</v>
+        <v>3244.744231117989</v>
       </c>
       <c r="R11" t="n">
-        <v>3302.587300988343</v>
+        <v>3302.587300988345</v>
       </c>
       <c r="S11" t="n">
-        <v>3302.587300988343</v>
+        <v>3191.862101122993</v>
       </c>
       <c r="T11" t="n">
-        <v>3302.587300988343</v>
+        <v>2985.800879621514</v>
       </c>
       <c r="U11" t="n">
-        <v>3089.528314407298</v>
+        <v>2732.268877387445</v>
       </c>
       <c r="V11" t="n">
-        <v>3089.528314407298</v>
+        <v>2732.268877387445</v>
       </c>
       <c r="W11" t="n">
-        <v>2736.759659137183</v>
+        <v>2732.268877387445</v>
       </c>
       <c r="X11" t="n">
-        <v>2363.293900876104</v>
+        <v>2732.268877387445</v>
       </c>
       <c r="Y11" t="n">
-        <v>2363.293900876104</v>
+        <v>2342.129545411633</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3154746341398</v>
+        <v>931.3154746341401</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8624453530128</v>
+        <v>756.8624453530131</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9280356917616</v>
+        <v>607.9280356917618</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6905806863061</v>
+        <v>448.6905806863062</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1560227131911</v>
+        <v>302.1560227131912</v>
       </c>
       <c r="G12" t="n">
         <v>165.7827198122175</v>
       </c>
       <c r="H12" t="n">
-        <v>75.18228852302755</v>
+        <v>75.18228852302757</v>
       </c>
       <c r="I12" t="n">
-        <v>66.05174601976685</v>
+        <v>66.0517460197669</v>
       </c>
       <c r="J12" t="n">
-        <v>158.784263228266</v>
+        <v>158.7842632282661</v>
       </c>
       <c r="K12" t="n">
-        <v>395.4337300805436</v>
+        <v>395.4337300805439</v>
       </c>
       <c r="L12" t="n">
-        <v>759.960683776698</v>
+        <v>759.9606837766986</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.452538601828</v>
+        <v>1204.703313286747</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.374827057758</v>
+        <v>1681.374827057757</v>
       </c>
       <c r="O12" t="n">
         <v>2089.956923659412</v>
@@ -5157,7 +5157,7 @@
         <v>1769.379967352896</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.142610624694</v>
+        <v>1515.142610624695</v>
       </c>
       <c r="X12" t="n">
         <v>1307.291110419162</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233.0844186722523</v>
+        <v>530.1730120074632</v>
       </c>
       <c r="C13" t="n">
-        <v>233.0844186722523</v>
+        <v>530.1730120074632</v>
       </c>
       <c r="D13" t="n">
-        <v>233.0844186722524</v>
+        <v>380.0563725951275</v>
       </c>
       <c r="E13" t="n">
-        <v>233.0844186722524</v>
+        <v>380.0563725951275</v>
       </c>
       <c r="F13" t="n">
-        <v>233.0844186722524</v>
+        <v>380.0563725951275</v>
       </c>
       <c r="G13" t="n">
-        <v>212.3449823407351</v>
+        <v>212.3449823407352</v>
       </c>
       <c r="H13" t="n">
-        <v>66.05174601976685</v>
+        <v>66.0517460197669</v>
       </c>
       <c r="I13" t="n">
-        <v>66.05174601976685</v>
+        <v>66.0517460197669</v>
       </c>
       <c r="J13" t="n">
-        <v>110.5816712459381</v>
+        <v>110.5816712459382</v>
       </c>
       <c r="K13" t="n">
-        <v>313.594854158635</v>
+        <v>313.5948541586351</v>
       </c>
       <c r="L13" t="n">
-        <v>628.908267897297</v>
+        <v>628.9082678972973</v>
       </c>
       <c r="M13" t="n">
-        <v>971.7511755763576</v>
+        <v>971.7511755763579</v>
       </c>
       <c r="N13" t="n">
-        <v>1311.87666162424</v>
+        <v>1311.876661624241</v>
       </c>
       <c r="O13" t="n">
-        <v>1610.021303380137</v>
+        <v>1610.021303380138</v>
       </c>
       <c r="P13" t="n">
-        <v>1841.614868251877</v>
+        <v>1841.614868251878</v>
       </c>
       <c r="Q13" t="n">
-        <v>1918.52316797769</v>
+        <v>1918.523167977691</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.52316797769</v>
+        <v>1828.308108466268</v>
       </c>
       <c r="S13" t="n">
-        <v>1918.52316797769</v>
+        <v>1636.473157865764</v>
       </c>
       <c r="T13" t="n">
-        <v>1696.720005222831</v>
+        <v>1414.669995110905</v>
       </c>
       <c r="U13" t="n">
-        <v>1407.616671786887</v>
+        <v>1125.566661674961</v>
       </c>
       <c r="V13" t="n">
-        <v>1152.932183581</v>
+        <v>1125.566661674961</v>
       </c>
       <c r="W13" t="n">
-        <v>863.5150135440394</v>
+        <v>932.6140559812329</v>
       </c>
       <c r="X13" t="n">
-        <v>635.5254626460221</v>
+        <v>932.614055981233</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.732883502492</v>
+        <v>711.8214768377029</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.989721867776</v>
+        <v>2050.033031165798</v>
       </c>
       <c r="C14" t="n">
-        <v>1231.952497735044</v>
+        <v>1682.995807033066</v>
       </c>
       <c r="D14" t="n">
-        <v>875.6120919359723</v>
+        <v>1326.655401233994</v>
       </c>
       <c r="E14" t="n">
-        <v>825.4798116787995</v>
+        <v>942.7924414434292</v>
       </c>
       <c r="F14" t="n">
-        <v>416.4191996968711</v>
+        <v>533.7318294615009</v>
       </c>
       <c r="G14" t="n">
-        <v>416.4191996968711</v>
+        <v>120.5656032653575</v>
       </c>
       <c r="H14" t="n">
-        <v>120.5656032653574</v>
+        <v>120.5656032653575</v>
       </c>
       <c r="I14" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J14" t="n">
         <v>434.457387840104</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.803360916185</v>
+        <v>765.8994024707322</v>
       </c>
       <c r="L14" t="n">
-        <v>1534.888250031165</v>
+        <v>1213.984291585713</v>
       </c>
       <c r="M14" t="n">
-        <v>2065.138463330728</v>
+        <v>1744.234504885276</v>
       </c>
       <c r="N14" t="n">
-        <v>2608.582487819842</v>
+        <v>2287.67852937439</v>
       </c>
       <c r="O14" t="n">
-        <v>3108.406008639225</v>
+        <v>2787.502050193773</v>
       </c>
       <c r="P14" t="n">
-        <v>3500.492818973766</v>
+        <v>3408.579990515327</v>
       </c>
       <c r="Q14" t="n">
-        <v>3865.039950377333</v>
+        <v>3865.039950377331</v>
       </c>
       <c r="R14" t="n">
-        <v>3987.942275921941</v>
+        <v>3987.94227592194</v>
       </c>
       <c r="S14" t="n">
-        <v>3879.142368864269</v>
+        <v>3879.142368864267</v>
       </c>
       <c r="T14" t="n">
-        <v>3675.006440170468</v>
+        <v>3675.006440170466</v>
       </c>
       <c r="U14" t="n">
-        <v>3423.399730744078</v>
+        <v>3545.305445506209</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.262136208186</v>
+        <v>3545.305445506209</v>
       </c>
       <c r="W14" t="n">
-        <v>2743.418773745751</v>
+        <v>3194.462083043774</v>
       </c>
       <c r="X14" t="n">
-        <v>2371.878308292351</v>
+        <v>2822.921617590373</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.664269124219</v>
+        <v>2434.707578422241</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>621.6351351904336</v>
       </c>
       <c r="E15" t="n">
-        <v>462.3976801849782</v>
+        <v>462.3976801849781</v>
       </c>
       <c r="F15" t="n">
         <v>315.8631222118631</v>
       </c>
       <c r="G15" t="n">
-        <v>179.4898193108895</v>
+        <v>179.4898193108894</v>
       </c>
       <c r="H15" t="n">
-        <v>88.88938802169955</v>
+        <v>88.88938802169946</v>
       </c>
       <c r="I15" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J15" t="n">
-        <v>172.491362726938</v>
+        <v>178.2405880420188</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1408295792156</v>
+        <v>414.8900548942966</v>
       </c>
       <c r="L15" t="n">
-        <v>773.6677832753701</v>
+        <v>779.4170085904512</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.410412785418</v>
+        <v>1224.159638100499</v>
       </c>
       <c r="N15" t="n">
-        <v>1689.332701241347</v>
+        <v>1695.081926556429</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.914797843002</v>
+        <v>2103.664023158085</v>
       </c>
       <c r="P15" t="n">
-        <v>2406.504885356482</v>
+        <v>2412.254110671564</v>
       </c>
       <c r="Q15" t="n">
         <v>2568.619215487805</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.5338473930459</v>
+        <v>536.1023338421868</v>
       </c>
       <c r="C16" t="n">
-        <v>776.5229572728181</v>
+        <v>369.0914437219591</v>
       </c>
       <c r="D16" t="n">
-        <v>776.5229572728181</v>
+        <v>369.0914437219591</v>
       </c>
       <c r="E16" t="n">
-        <v>630.5351564981042</v>
+        <v>369.0914437219591</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5705018078731</v>
+        <v>224.1267890317279</v>
       </c>
       <c r="G16" t="n">
-        <v>319.7844043611599</v>
+        <v>224.1267890317279</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4164608478709</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="I16" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J16" t="n">
-        <v>126.1757502254165</v>
+        <v>126.1757502254164</v>
       </c>
       <c r="K16" t="n">
-        <v>331.0759126189198</v>
+        <v>331.0759126189197</v>
       </c>
       <c r="L16" t="n">
         <v>648.2763058383882</v>
@@ -5455,31 +5455,31 @@
         <v>1868.530824116194</v>
       </c>
       <c r="Q16" t="n">
-        <v>1947.326103322813</v>
+        <v>1947.326103322814</v>
       </c>
       <c r="R16" t="n">
-        <v>1859.03633661907</v>
+        <v>1947.326103322814</v>
       </c>
       <c r="S16" t="n">
-        <v>1669.126678826245</v>
+        <v>1757.416445529988</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.126678826245</v>
+        <v>1537.538575582809</v>
       </c>
       <c r="U16" t="n">
-        <v>1568.188563841795</v>
+        <v>1295.220692805527</v>
       </c>
       <c r="V16" t="n">
-        <v>1568.188563841795</v>
+        <v>1042.461497407319</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.188563841795</v>
+        <v>754.9696201780378</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.124305751457</v>
+        <v>754.9696201780378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1123.257019415606</v>
+        <v>536.1023338421868</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1966.279482219155</v>
+        <v>2029.168169232903</v>
       </c>
       <c r="C17" t="n">
-        <v>1708.48654549805</v>
+        <v>1708.042165144092</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.057359742901</v>
+        <v>1397.612979388943</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.105619996258</v>
+        <v>1060.105619996257</v>
       </c>
       <c r="F17" t="n">
-        <v>696.9562280582518</v>
+        <v>696.9562280582505</v>
       </c>
       <c r="G17" t="n">
         <v>329.7012219060304</v>
       </c>
       <c r="H17" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="I17" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J17" t="n">
-        <v>267.051738819751</v>
+        <v>267.0517388197511</v>
       </c>
       <c r="K17" t="n">
-        <v>598.4937534503789</v>
+        <v>598.4937534503792</v>
       </c>
       <c r="L17" t="n">
-        <v>1046.578642565359</v>
+        <v>1046.57864256536</v>
       </c>
       <c r="M17" t="n">
-        <v>1576.828855864922</v>
+        <v>1815.503276131981</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.272880354036</v>
+        <v>2791.920755788959</v>
       </c>
       <c r="O17" t="n">
-        <v>2697.912459091019</v>
+        <v>3291.744276608343</v>
       </c>
       <c r="P17" t="n">
-        <v>3408.579990515329</v>
+        <v>3683.831086942885</v>
       </c>
       <c r="Q17" t="n">
-        <v>3865.039950377333</v>
+        <v>3930.099206051584</v>
       </c>
       <c r="R17" t="n">
-        <v>3987.942275921941</v>
+        <v>3987.94227592194</v>
       </c>
       <c r="S17" t="n">
-        <v>3925.053588908192</v>
+        <v>3987.94227592194</v>
       </c>
       <c r="T17" t="n">
-        <v>3766.828880258313</v>
+        <v>3829.717567272061</v>
       </c>
       <c r="U17" t="n">
-        <v>3561.133390875846</v>
+        <v>3624.022077889594</v>
       </c>
       <c r="V17" t="n">
-        <v>3277.907016383876</v>
+        <v>3340.795703397625</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.974873965363</v>
+        <v>3035.863560979112</v>
       </c>
       <c r="X17" t="n">
-        <v>2647.345628555885</v>
+        <v>2710.234315569634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2305.042809431675</v>
+        <v>2367.931496445423</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>621.6351351904336</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3976801849782</v>
+        <v>462.3976801849781</v>
       </c>
       <c r="F18" t="n">
         <v>315.8631222118631</v>
       </c>
       <c r="G18" t="n">
-        <v>179.4898193108895</v>
+        <v>179.4898193108894</v>
       </c>
       <c r="H18" t="n">
-        <v>88.88938802169955</v>
+        <v>88.88938802169946</v>
       </c>
       <c r="I18" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J18" t="n">
         <v>172.491362726938</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1408295792156</v>
+        <v>409.1408295792158</v>
       </c>
       <c r="L18" t="n">
-        <v>773.6677832753701</v>
+        <v>773.6677832753705</v>
       </c>
       <c r="M18" t="n">
         <v>1218.410412785418</v>
       </c>
       <c r="N18" t="n">
-        <v>1689.332701241347</v>
+        <v>1689.332701241348</v>
       </c>
       <c r="O18" t="n">
-        <v>2097.914797843002</v>
+        <v>2097.914797843004</v>
       </c>
       <c r="P18" t="n">
-        <v>2412.254110671564</v>
+        <v>2406.504885356484</v>
       </c>
       <c r="Q18" t="n">
         <v>2568.619215487805</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.3466536902466</v>
+        <v>770.3466536902467</v>
       </c>
       <c r="C19" t="n">
         <v>649.2469836139412</v>
@@ -5668,16 +5668,16 @@
         <v>129.5052408039486</v>
       </c>
       <c r="I19" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J19" t="n">
-        <v>171.1733369904642</v>
+        <v>171.1733369904647</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0710861490156</v>
+        <v>421.0710861490155</v>
       </c>
       <c r="L19" t="n">
-        <v>783.2690661335323</v>
+        <v>783.2690661335322</v>
       </c>
       <c r="M19" t="n">
         <v>1172.996540058447</v>
@@ -5716,7 +5716,7 @@
         <v>1077.114671960814</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.1586056688849</v>
+        <v>904.158605668885</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2029.612549586859</v>
+        <v>1966.279482219152</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.486545498049</v>
+        <v>1645.153478130342</v>
       </c>
       <c r="D20" t="n">
         <v>1398.0573597429</v>
@@ -5738,64 +5738,64 @@
         <v>1060.105619996257</v>
       </c>
       <c r="F20" t="n">
-        <v>696.9562280582508</v>
+        <v>696.9562280582506</v>
       </c>
       <c r="G20" t="n">
         <v>329.7012219060304</v>
       </c>
       <c r="H20" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="I20" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J20" t="n">
-        <v>434.457387840104</v>
+        <v>409.9270524116004</v>
       </c>
       <c r="K20" t="n">
-        <v>765.899402470732</v>
+        <v>741.3690670422285</v>
       </c>
       <c r="L20" t="n">
-        <v>1213.984291585712</v>
+        <v>1189.453956157209</v>
       </c>
       <c r="M20" t="n">
-        <v>1744.234504885275</v>
+        <v>1719.704169456772</v>
       </c>
       <c r="N20" t="n">
-        <v>2287.678529374389</v>
+        <v>2263.148193945886</v>
       </c>
       <c r="O20" t="n">
-        <v>2787.502050193772</v>
+        <v>2762.97171476527</v>
       </c>
       <c r="P20" t="n">
-        <v>3408.579990515329</v>
+        <v>3473.639246189579</v>
       </c>
       <c r="Q20" t="n">
-        <v>3865.039950377333</v>
+        <v>3930.099206051584</v>
       </c>
       <c r="R20" t="n">
-        <v>3987.942275921941</v>
+        <v>3987.94227592194</v>
       </c>
       <c r="S20" t="n">
-        <v>3925.053588908192</v>
+        <v>3925.05358890819</v>
       </c>
       <c r="T20" t="n">
-        <v>3766.828880258313</v>
+        <v>3766.828880258311</v>
       </c>
       <c r="U20" t="n">
-        <v>3561.133390875846</v>
+        <v>3561.133390875844</v>
       </c>
       <c r="V20" t="n">
-        <v>3277.907016383876</v>
+        <v>3277.907016383875</v>
       </c>
       <c r="W20" t="n">
-        <v>3036.307941333068</v>
+        <v>2972.974873965361</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.67869592359</v>
+        <v>2647.345628555883</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.37587679938</v>
+        <v>2305.042809431673</v>
       </c>
     </row>
     <row r="21">
@@ -5814,37 +5814,37 @@
         <v>621.6351351904336</v>
       </c>
       <c r="E21" t="n">
-        <v>462.3976801849782</v>
+        <v>462.3976801849781</v>
       </c>
       <c r="F21" t="n">
         <v>315.8631222118631</v>
       </c>
       <c r="G21" t="n">
-        <v>179.4898193108895</v>
+        <v>179.4898193108894</v>
       </c>
       <c r="H21" t="n">
-        <v>88.88938802169955</v>
+        <v>88.88938802169946</v>
       </c>
       <c r="I21" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J21" t="n">
-        <v>178.2405880420203</v>
+        <v>172.491362726938</v>
       </c>
       <c r="K21" t="n">
-        <v>414.8900548942979</v>
+        <v>409.1408295792158</v>
       </c>
       <c r="L21" t="n">
-        <v>779.4170085904524</v>
+        <v>773.6677832753705</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.1596381005</v>
+        <v>1218.410412785418</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.08192655643</v>
+        <v>1689.332701241348</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.664023158085</v>
+        <v>2097.914797843004</v>
       </c>
       <c r="P21" t="n">
         <v>2412.254110671564</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>770.3466536902469</v>
+        <v>770.3466536902459</v>
       </c>
       <c r="C22" t="n">
-        <v>649.2469836139413</v>
+        <v>649.2469836139404</v>
       </c>
       <c r="D22" t="n">
-        <v>546.966857053207</v>
+        <v>546.9668570532061</v>
       </c>
       <c r="E22" t="n">
-        <v>446.8902763224153</v>
+        <v>446.8902763224144</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8368416761064</v>
+        <v>347.8368416761054</v>
       </c>
       <c r="G22" t="n">
         <v>227.9619642733155</v>
       </c>
       <c r="H22" t="n">
-        <v>129.5052408039487</v>
+        <v>129.5052408039486</v>
       </c>
       <c r="I22" t="n">
-        <v>79.75884551843883</v>
+        <v>79.75884551843879</v>
       </c>
       <c r="J22" t="n">
-        <v>171.1733369904643</v>
+        <v>171.1733369904646</v>
       </c>
       <c r="K22" t="n">
-        <v>421.0710861490158</v>
+        <v>421.0710861490163</v>
       </c>
       <c r="L22" t="n">
-        <v>783.2690661335325</v>
+        <v>783.269066133533</v>
       </c>
       <c r="M22" t="n">
         <v>1172.996540058448</v>
@@ -5926,7 +5926,7 @@
         <v>1905.035800353937</v>
       </c>
       <c r="P22" t="n">
-        <v>2183.513931471531</v>
+        <v>2183.513931471532</v>
       </c>
       <c r="Q22" t="n">
         <v>2307.306797443199</v>
@@ -5941,19 +5941,19 @@
         <v>1946.963163131217</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.696342546875</v>
+        <v>1705.696342546874</v>
       </c>
       <c r="V22" t="n">
         <v>1498.848367192589</v>
       </c>
       <c r="W22" t="n">
-        <v>1257.26771000723</v>
+        <v>1257.267710007229</v>
       </c>
       <c r="X22" t="n">
-        <v>1077.114671960814</v>
+        <v>1077.114671960813</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.1586056688851</v>
+        <v>904.1586056688843</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.905061165793</v>
+        <v>2030.905061165792</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.779057076983</v>
+        <v>1709.779057076982</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.349871321834</v>
+        <v>1399.349871321833</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.398131575191</v>
+        <v>1061.39813157519</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2487396371848</v>
+        <v>698.2487396371839</v>
       </c>
       <c r="G23" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H23" t="n">
-        <v>81.05135709737161</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="I23" t="n">
-        <v>81.05135709737161</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J23" t="n">
-        <v>435.7498994190368</v>
+        <v>268.3442503986839</v>
       </c>
       <c r="K23" t="n">
-        <v>767.1919140496647</v>
+        <v>920.6902234747652</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.276803164645</v>
+        <v>1368.775112589746</v>
       </c>
       <c r="M23" t="n">
-        <v>1745.527016464208</v>
+        <v>1899.025325889309</v>
       </c>
       <c r="N23" t="n">
-        <v>2288.971040953321</v>
+        <v>2442.469350378423</v>
       </c>
       <c r="O23" t="n">
-        <v>2788.794561772704</v>
+        <v>3319.285050647924</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.205569461967</v>
+        <v>3748.456665889525</v>
       </c>
       <c r="Q23" t="n">
-        <v>3929.665529323972</v>
+        <v>3994.724784998224</v>
       </c>
       <c r="R23" t="n">
         <v>4052.56785486858</v>
@@ -6020,19 +6020,19 @@
         <v>3831.454459204951</v>
       </c>
       <c r="U23" t="n">
-        <v>3625.758969822484</v>
+        <v>3625.758969822483</v>
       </c>
       <c r="V23" t="n">
-        <v>3342.532595330515</v>
+        <v>3342.532595330514</v>
       </c>
       <c r="W23" t="n">
-        <v>3037.600452912002</v>
+        <v>3037.600452912001</v>
       </c>
       <c r="X23" t="n">
-        <v>2711.971207502524</v>
+        <v>2711.971207502522</v>
       </c>
       <c r="Y23" t="n">
-        <v>2369.668388378313</v>
+        <v>2369.668388378312</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F24" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G24" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H24" t="n">
-        <v>90.18189960063231</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I24" t="n">
-        <v>81.05135709737161</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J24" t="n">
         <v>173.7838743058708</v>
       </c>
       <c r="K24" t="n">
-        <v>410.4333411581484</v>
+        <v>410.4333411581486</v>
       </c>
       <c r="L24" t="n">
-        <v>774.9602948543029</v>
+        <v>774.9602948543034</v>
       </c>
       <c r="M24" t="n">
         <v>1219.702924364351</v>
       </c>
       <c r="N24" t="n">
-        <v>1690.62521282028</v>
+        <v>1690.625212820281</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.207309421935</v>
+        <v>2099.207309421937</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.797396935415</v>
+        <v>2407.797396935417</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.911727066738</v>
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.6391652691796</v>
+        <v>771.6391652691798</v>
       </c>
       <c r="C25" t="n">
-        <v>650.539495192874</v>
+        <v>650.5394951928743</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2593686321397</v>
+        <v>548.25936863214</v>
       </c>
       <c r="E25" t="n">
-        <v>448.182787901348</v>
+        <v>448.1827879013483</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1293532550392</v>
+        <v>349.1293532550393</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2544758522482</v>
+        <v>229.2544758522483</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7977523828814</v>
+        <v>130.7977523828815</v>
       </c>
       <c r="I25" t="n">
-        <v>81.05135709737161</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K25" t="n">
-        <v>422.3635977279489</v>
+        <v>422.363597727949</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124657</v>
       </c>
       <c r="M25" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N25" t="n">
         <v>1561.299103931118</v>
       </c>
       <c r="O25" t="n">
-        <v>1906.328311932869</v>
+        <v>1906.32831193287</v>
       </c>
       <c r="P25" t="n">
         <v>2184.806443050464</v>
       </c>
       <c r="Q25" t="n">
-        <v>2308.599309022131</v>
+        <v>2308.599309022132</v>
       </c>
       <c r="R25" t="n">
-        <v>2266.22076236231</v>
+        <v>2266.220762362311</v>
       </c>
       <c r="S25" t="n">
-        <v>2122.222324613407</v>
+        <v>2122.222324613408</v>
       </c>
       <c r="T25" t="n">
         <v>1948.25567471015</v>
@@ -6187,10 +6187,10 @@
         <v>1258.560221586163</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.407183539746</v>
+        <v>1078.407183539747</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.4511172478178</v>
+        <v>905.451117247818</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>330.9937334849632</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J26" t="n">
-        <v>435.7498994190368</v>
+        <v>268.3442503986839</v>
       </c>
       <c r="K26" t="n">
-        <v>1088.095872495118</v>
+        <v>599.7862650293121</v>
       </c>
       <c r="L26" t="n">
-        <v>1536.180761610098</v>
+        <v>1461.355756549238</v>
       </c>
       <c r="M26" t="n">
-        <v>2066.430974909661</v>
+        <v>1991.605969848802</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.874999398774</v>
+        <v>2856.546334735599</v>
       </c>
       <c r="O26" t="n">
-        <v>3109.698520218157</v>
+        <v>3356.369855554983</v>
       </c>
       <c r="P26" t="n">
-        <v>3538.264825136219</v>
+        <v>3748.456665889525</v>
       </c>
       <c r="Q26" t="n">
         <v>3994.724784998224</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.567854868579</v>
+        <v>4052.56785486858</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.679167854829</v>
+        <v>3989.67916785483</v>
       </c>
       <c r="T26" t="n">
         <v>3831.454459204951</v>
@@ -6266,10 +6266,10 @@
         <v>3037.600452912001</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.971207502522</v>
+        <v>2711.971207502523</v>
       </c>
       <c r="Y26" t="n">
-        <v>2369.668388378312</v>
+        <v>2369.668388378313</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F27" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G27" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18189960063228</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J27" t="n">
-        <v>173.7838743058707</v>
+        <v>173.7838743058708</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4333411581483</v>
+        <v>410.4333411581486</v>
       </c>
       <c r="L27" t="n">
-        <v>774.9602948543028</v>
+        <v>774.9602948543034</v>
       </c>
       <c r="M27" t="n">
         <v>1219.702924364351</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.62521282028</v>
+        <v>1690.625212820281</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.207309421935</v>
+        <v>2104.956534737017</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.797396935415</v>
+        <v>2413.546622250497</v>
       </c>
       <c r="Q27" t="n">
         <v>2569.911727066738</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.639165269179</v>
+        <v>771.6391652691798</v>
       </c>
       <c r="C28" t="n">
-        <v>650.5394951928735</v>
+        <v>650.5394951928743</v>
       </c>
       <c r="D28" t="n">
-        <v>548.2593686321392</v>
+        <v>548.25936863214</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1827879013475</v>
+        <v>448.1827879013483</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1293532550386</v>
+        <v>349.1293532550393</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2544758522477</v>
+        <v>229.2544758522483</v>
       </c>
       <c r="H28" t="n">
-        <v>130.797752382881</v>
+        <v>130.7977523828814</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J28" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3635977279488</v>
+        <v>422.3635977279489</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124656</v>
       </c>
       <c r="M28" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N28" t="n">
         <v>1561.299103931118</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.328311932869</v>
+        <v>1906.32831193287</v>
       </c>
       <c r="P28" t="n">
-        <v>2184.806443050463</v>
+        <v>2184.806443050464</v>
       </c>
       <c r="Q28" t="n">
         <v>2308.599309022131</v>
@@ -6412,22 +6412,22 @@
         <v>2122.222324613407</v>
       </c>
       <c r="T28" t="n">
-        <v>1948.255674710149</v>
+        <v>1948.25567471015</v>
       </c>
       <c r="U28" t="n">
-        <v>1706.988854125806</v>
+        <v>1706.988854125808</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.140878771521</v>
+        <v>1500.140878771522</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.560221586162</v>
+        <v>1258.560221586163</v>
       </c>
       <c r="X28" t="n">
-        <v>1078.407183539746</v>
+        <v>1078.407183539747</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.4511172478173</v>
+        <v>905.451117247818</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>333.4691099519792</v>
       </c>
       <c r="H29" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670848</v>
       </c>
       <c r="I29" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670848</v>
       </c>
       <c r="J29" t="n">
-        <v>268.8943340580207</v>
+        <v>436.2999830783738</v>
       </c>
       <c r="K29" t="n">
-        <v>600.3363486886485</v>
+        <v>1088.645956154455</v>
       </c>
       <c r="L29" t="n">
-        <v>1048.421237803629</v>
+        <v>1536.730845269436</v>
       </c>
       <c r="M29" t="n">
-        <v>1907.633038045468</v>
+        <v>2066.981058568999</v>
       </c>
       <c r="N29" t="n">
-        <v>2884.050517702446</v>
+        <v>2610.425083058113</v>
       </c>
       <c r="O29" t="n">
-        <v>3383.874038521829</v>
+        <v>3110.248603877496</v>
       </c>
       <c r="P29" t="n">
-        <v>3775.96084885637</v>
+        <v>3502.335414212038</v>
       </c>
       <c r="Q29" t="n">
-        <v>4022.228967965069</v>
+        <v>3957.169712290816</v>
       </c>
       <c r="R29" t="n">
-        <v>4080.072037835425</v>
+        <v>4080.072037835424</v>
       </c>
       <c r="S29" t="n">
         <v>4015.258058013996</v>
@@ -6528,37 +6528,37 @@
         <v>464.2402754232478</v>
       </c>
       <c r="F30" t="n">
-        <v>317.7057174501328</v>
+        <v>317.7057174501327</v>
       </c>
       <c r="G30" t="n">
         <v>181.3324145491591</v>
       </c>
       <c r="H30" t="n">
-        <v>90.73198325996921</v>
+        <v>90.73198325996916</v>
       </c>
       <c r="I30" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670848</v>
       </c>
       <c r="J30" t="n">
-        <v>174.3339579652076</v>
+        <v>174.3339579652077</v>
       </c>
       <c r="K30" t="n">
-        <v>410.9834248174852</v>
+        <v>410.9834248174855</v>
       </c>
       <c r="L30" t="n">
-        <v>775.5103785136397</v>
+        <v>775.5103785136403</v>
       </c>
       <c r="M30" t="n">
-        <v>1220.253008023687</v>
+        <v>1220.253008023688</v>
       </c>
       <c r="N30" t="n">
-        <v>1691.175296479617</v>
+        <v>1696.924521794699</v>
       </c>
       <c r="O30" t="n">
-        <v>2099.757393081272</v>
+        <v>2105.506618396354</v>
       </c>
       <c r="P30" t="n">
-        <v>2408.347480594752</v>
+        <v>2414.096705909834</v>
       </c>
       <c r="Q30" t="n">
         <v>2570.461810726074</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>739.7657778129528</v>
+        <v>739.7657778129537</v>
       </c>
       <c r="C31" t="n">
-        <v>662.6413356982862</v>
+        <v>616.740814928969</v>
       </c>
       <c r="D31" t="n">
         <v>558.4359163298727</v>
       </c>
       <c r="E31" t="n">
-        <v>456.4340427914019</v>
+        <v>456.4340427914018</v>
       </c>
       <c r="F31" t="n">
         <v>355.4553153374137</v>
       </c>
       <c r="G31" t="n">
-        <v>233.6551451269436</v>
+        <v>233.6551451269435</v>
       </c>
       <c r="H31" t="n">
         <v>133.2731288498975</v>
       </c>
       <c r="I31" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670848</v>
       </c>
       <c r="J31" t="n">
         <v>171.1289527479279</v>
       </c>
       <c r="K31" t="n">
-        <v>419.139722425673</v>
+        <v>419.1397224256731</v>
       </c>
       <c r="L31" t="n">
-        <v>779.4507229293831</v>
+        <v>779.4507229293835</v>
       </c>
       <c r="M31" t="n">
         <v>1167.291217373492</v>
@@ -6637,34 +6637,34 @@
         <v>1895.556518707368</v>
       </c>
       <c r="P31" t="n">
-        <v>2172.147670344156</v>
+        <v>2172.147670344157</v>
       </c>
       <c r="Q31" t="n">
-        <v>2294.053556835017</v>
+        <v>2294.053556835018</v>
       </c>
       <c r="R31" t="n">
-        <v>2249.749717367516</v>
+        <v>2249.749717367517</v>
       </c>
       <c r="S31" t="n">
-        <v>2103.825986810934</v>
+        <v>2103.825986810935</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.934044099998</v>
+        <v>1927.934044099999</v>
       </c>
       <c r="U31" t="n">
-        <v>1684.741930707976</v>
+        <v>1684.741930707977</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.968662546011</v>
+        <v>1475.968662546012</v>
       </c>
       <c r="W31" t="n">
-        <v>1232.462712552973</v>
+        <v>1232.462712552974</v>
       </c>
       <c r="X31" t="n">
-        <v>1050.384381698878</v>
+        <v>1050.384381698879</v>
       </c>
       <c r="Y31" t="n">
-        <v>875.5030225992703</v>
+        <v>875.5030225992712</v>
       </c>
     </row>
     <row r="32">
@@ -6680,58 +6680,58 @@
         <v>1709.779057076982</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.349871321832</v>
+        <v>1399.349871321833</v>
       </c>
       <c r="E32" t="n">
         <v>1061.39813157519</v>
       </c>
       <c r="F32" t="n">
-        <v>698.2487396371835</v>
+        <v>698.2487396371838</v>
       </c>
       <c r="G32" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H32" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="I32" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J32" t="n">
-        <v>268.3442503986838</v>
+        <v>268.3442503986839</v>
       </c>
       <c r="K32" t="n">
-        <v>920.6902234747647</v>
+        <v>920.6902234747652</v>
       </c>
       <c r="L32" t="n">
-        <v>1368.775112589745</v>
+        <v>1368.775112589746</v>
       </c>
       <c r="M32" t="n">
-        <v>1899.025325889308</v>
+        <v>1899.025325889309</v>
       </c>
       <c r="N32" t="n">
-        <v>2442.469350378421</v>
+        <v>2442.469350378423</v>
       </c>
       <c r="O32" t="n">
-        <v>2942.292871197804</v>
+        <v>2942.292871197806</v>
       </c>
       <c r="P32" t="n">
-        <v>3652.960402622114</v>
+        <v>3652.960402622116</v>
       </c>
       <c r="Q32" t="n">
         <v>3994.724784998224</v>
       </c>
       <c r="R32" t="n">
-        <v>4052.567854868579</v>
+        <v>4052.56785486858</v>
       </c>
       <c r="S32" t="n">
-        <v>3989.679167854829</v>
+        <v>3989.67916785483</v>
       </c>
       <c r="T32" t="n">
-        <v>3831.45445920495</v>
+        <v>3831.454459204951</v>
       </c>
       <c r="U32" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822484</v>
       </c>
       <c r="V32" t="n">
         <v>3342.532595330514</v>
@@ -6740,10 +6740,10 @@
         <v>3037.600452912001</v>
       </c>
       <c r="X32" t="n">
-        <v>2711.971207502522</v>
+        <v>2711.971207502523</v>
       </c>
       <c r="Y32" t="n">
-        <v>2369.668388378312</v>
+        <v>2369.668388378313</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F33" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G33" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H33" t="n">
-        <v>90.18189960063228</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I33" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J33" t="n">
-        <v>173.7838743058707</v>
+        <v>173.7838743058708</v>
       </c>
       <c r="K33" t="n">
-        <v>410.4333411581483</v>
+        <v>410.4333411581486</v>
       </c>
       <c r="L33" t="n">
-        <v>774.9602948543028</v>
+        <v>774.9602948543034</v>
       </c>
       <c r="M33" t="n">
         <v>1219.702924364351</v>
       </c>
       <c r="N33" t="n">
-        <v>1690.62521282028</v>
+        <v>1696.374438135362</v>
       </c>
       <c r="O33" t="n">
-        <v>2099.207309421935</v>
+        <v>2104.956534737017</v>
       </c>
       <c r="P33" t="n">
         <v>2413.546622250497</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6391652691791</v>
+        <v>771.6391652691793</v>
       </c>
       <c r="C34" t="n">
-        <v>650.5394951928736</v>
+        <v>650.5394951928738</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2593686321393</v>
+        <v>548.2593686321394</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1827879013476</v>
+        <v>448.1827879013477</v>
       </c>
       <c r="F34" t="n">
         <v>349.1293532550387</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2544758522478</v>
+        <v>229.2544758522477</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7977523828809</v>
+        <v>130.7977523828808</v>
       </c>
       <c r="I34" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737159</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693976</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3635977279487</v>
+        <v>422.3635977279491</v>
       </c>
       <c r="L34" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124658</v>
       </c>
       <c r="M34" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N34" t="n">
-        <v>1561.299103931117</v>
+        <v>1561.299103931118</v>
       </c>
       <c r="O34" t="n">
-        <v>1906.328311932869</v>
+        <v>1906.32831193287</v>
       </c>
       <c r="P34" t="n">
-        <v>2184.806443050463</v>
+        <v>2184.806443050464</v>
       </c>
       <c r="Q34" t="n">
         <v>2308.599309022131</v>
@@ -6892,7 +6892,7 @@
         <v>1706.988854125807</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.140878771521</v>
+        <v>1500.140878771522</v>
       </c>
       <c r="W34" t="n">
         <v>1258.560221586162</v>
@@ -6901,7 +6901,7 @@
         <v>1078.407183539746</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4511172478174</v>
+        <v>905.4511172478176</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>698.2487396371835</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9937334849631</v>
+        <v>330.9937334849632</v>
       </c>
       <c r="H35" t="n">
         <v>81.05135709737158</v>
@@ -6935,25 +6935,25 @@
         <v>81.05135709737158</v>
       </c>
       <c r="J35" t="n">
-        <v>268.3442503986838</v>
+        <v>435.7498994190369</v>
       </c>
       <c r="K35" t="n">
-        <v>599.7862650293116</v>
+        <v>767.191914049665</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.871154144292</v>
+        <v>1215.276803164646</v>
       </c>
       <c r="M35" t="n">
-        <v>1578.121367443855</v>
+        <v>1745.527016464209</v>
       </c>
       <c r="N35" t="n">
-        <v>2121.565391932968</v>
+        <v>2288.971040953323</v>
       </c>
       <c r="O35" t="n">
-        <v>2762.538038037656</v>
+        <v>2788.794561772706</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.205569461966</v>
+        <v>3499.462093197016</v>
       </c>
       <c r="Q35" t="n">
         <v>3929.665529323971</v>
@@ -6962,7 +6962,7 @@
         <v>4052.567854868579</v>
       </c>
       <c r="S35" t="n">
-        <v>3989.679167854829</v>
+        <v>3989.679167854828</v>
       </c>
       <c r="T35" t="n">
         <v>3831.45445920495</v>
@@ -6977,7 +6977,7 @@
         <v>3037.600452912001</v>
       </c>
       <c r="X35" t="n">
-        <v>2711.971207502523</v>
+        <v>2711.971207502522</v>
       </c>
       <c r="Y35" t="n">
         <v>2369.668388378312</v>
@@ -7002,28 +7002,28 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F36" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G36" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H36" t="n">
-        <v>90.18189960063228</v>
+        <v>90.18189960063225</v>
       </c>
       <c r="I36" t="n">
         <v>81.05135709737158</v>
       </c>
       <c r="J36" t="n">
-        <v>173.7838743058707</v>
+        <v>179.5330996209514</v>
       </c>
       <c r="K36" t="n">
-        <v>410.4333411581483</v>
+        <v>416.1825664732291</v>
       </c>
       <c r="L36" t="n">
-        <v>774.9602948543028</v>
+        <v>780.7095201693838</v>
       </c>
       <c r="M36" t="n">
-        <v>1225.452149679433</v>
+        <v>1225.452149679432</v>
       </c>
       <c r="N36" t="n">
         <v>1696.374438135362</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.6391652691791</v>
+        <v>771.6391652691794</v>
       </c>
       <c r="C37" t="n">
-        <v>650.5394951928736</v>
+        <v>650.5394951928739</v>
       </c>
       <c r="D37" t="n">
-        <v>548.2593686321393</v>
+        <v>548.2593686321396</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1827879013476</v>
+        <v>448.182787901348</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1293532550387</v>
+        <v>349.1293532550391</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2544758522478</v>
+        <v>229.2544758522481</v>
       </c>
       <c r="H37" t="n">
-        <v>130.797752382881</v>
+        <v>130.7977523828814</v>
       </c>
       <c r="I37" t="n">
         <v>81.05135709737158</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693978</v>
       </c>
       <c r="K37" t="n">
-        <v>422.3635977279486</v>
+        <v>422.3635977279494</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5615777124652</v>
+        <v>784.561577712466</v>
       </c>
       <c r="M37" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.299103931117</v>
+        <v>1561.299103931118</v>
       </c>
       <c r="O37" t="n">
-        <v>1906.328311932869</v>
+        <v>1906.32831193287</v>
       </c>
       <c r="P37" t="n">
-        <v>2184.806443050463</v>
+        <v>2184.806443050465</v>
       </c>
       <c r="Q37" t="n">
-        <v>2308.599309022131</v>
+        <v>2308.599309022132</v>
       </c>
       <c r="R37" t="n">
-        <v>2266.22076236231</v>
+        <v>2266.220762362311</v>
       </c>
       <c r="S37" t="n">
-        <v>2122.222324613407</v>
+        <v>2122.222324613408</v>
       </c>
       <c r="T37" t="n">
-        <v>1948.255674710149</v>
+        <v>1948.25567471015</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.988854125806</v>
+        <v>1706.988854125807</v>
       </c>
       <c r="V37" t="n">
         <v>1500.140878771521</v>
@@ -7138,7 +7138,7 @@
         <v>1078.407183539746</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.4511172478174</v>
+        <v>905.4511172478177</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>81.05135709737158</v>
       </c>
       <c r="J38" t="n">
-        <v>435.7498994190368</v>
+        <v>409.4933756839882</v>
       </c>
       <c r="K38" t="n">
-        <v>1059.516111404385</v>
+        <v>740.9353903146163</v>
       </c>
       <c r="L38" t="n">
-        <v>1507.601000519365</v>
+        <v>1189.020279429596</v>
       </c>
       <c r="M38" t="n">
-        <v>2037.851213818928</v>
+        <v>1719.27049272916</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.295238308041</v>
+        <v>2262.714517218274</v>
       </c>
       <c r="O38" t="n">
-        <v>3081.118759127424</v>
+        <v>2762.538038037656</v>
       </c>
       <c r="P38" t="n">
         <v>3473.205569461966</v>
@@ -7199,7 +7199,7 @@
         <v>4052.567854868579</v>
       </c>
       <c r="S38" t="n">
-        <v>3989.679167854829</v>
+        <v>3989.679167854828</v>
       </c>
       <c r="T38" t="n">
         <v>3831.45445920495</v>
@@ -7208,10 +7208,10 @@
         <v>3625.758969822483</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.532595330513</v>
+        <v>3342.532595330514</v>
       </c>
       <c r="W38" t="n">
-        <v>3037.600452912</v>
+        <v>3037.600452912001</v>
       </c>
       <c r="X38" t="n">
         <v>2711.971207502522</v>
@@ -7239,37 +7239,37 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F39" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G39" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18189960063228</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I39" t="n">
         <v>81.05135709737158</v>
       </c>
       <c r="J39" t="n">
-        <v>173.7838743058707</v>
+        <v>173.7838743058708</v>
       </c>
       <c r="K39" t="n">
-        <v>410.4333411581483</v>
+        <v>410.4333411581485</v>
       </c>
       <c r="L39" t="n">
-        <v>774.9602948543028</v>
+        <v>774.9602948543031</v>
       </c>
       <c r="M39" t="n">
         <v>1219.702924364351</v>
       </c>
       <c r="N39" t="n">
-        <v>1690.62521282028</v>
+        <v>1690.625212820281</v>
       </c>
       <c r="O39" t="n">
-        <v>2099.207309421935</v>
+        <v>2099.207309421936</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.797396935415</v>
+        <v>2407.797396935416</v>
       </c>
       <c r="Q39" t="n">
         <v>2569.911727066738</v>
@@ -7330,16 +7330,16 @@
         <v>81.05135709737158</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4658485693977</v>
+        <v>172.4658485693976</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3635977279489</v>
+        <v>422.3635977279492</v>
       </c>
       <c r="L40" t="n">
-        <v>784.5615777124656</v>
+        <v>784.5615777124659</v>
       </c>
       <c r="M40" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N40" t="n">
         <v>1561.299103931118</v>
@@ -7366,7 +7366,7 @@
         <v>1706.988854125807</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.140878771522</v>
+        <v>1500.140878771521</v>
       </c>
       <c r="W40" t="n">
         <v>1258.560221586162</v>
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2030.905061165792</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.779057076982</v>
+        <v>1709.779057076983</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.349871321833</v>
+        <v>1399.349871321834</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.39813157519</v>
+        <v>1061.398131575191</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2487396371839</v>
+        <v>698.2487396371848</v>
       </c>
       <c r="G41" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H41" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I41" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J41" t="n">
-        <v>268.3442503986838</v>
+        <v>435.7498994190369</v>
       </c>
       <c r="K41" t="n">
-        <v>805.9946459888699</v>
+        <v>767.191914049665</v>
       </c>
       <c r="L41" t="n">
-        <v>1254.07953510385</v>
+        <v>1215.276803164646</v>
       </c>
       <c r="M41" t="n">
-        <v>1784.329748403413</v>
+        <v>1745.527016464209</v>
       </c>
       <c r="N41" t="n">
-        <v>2327.773772892527</v>
+        <v>2288.971040953323</v>
       </c>
       <c r="O41" t="n">
-        <v>2827.59729371191</v>
+        <v>2788.794561772706</v>
       </c>
       <c r="P41" t="n">
-        <v>3538.264825136219</v>
+        <v>3499.462093197016</v>
       </c>
       <c r="Q41" t="n">
-        <v>3994.724784998224</v>
+        <v>3955.922053059021</v>
       </c>
       <c r="R41" t="n">
-        <v>4052.567854868579</v>
+        <v>4052.56785486858</v>
       </c>
       <c r="S41" t="n">
-        <v>3989.679167854829</v>
+        <v>3989.67916785483</v>
       </c>
       <c r="T41" t="n">
         <v>3831.454459204951</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822484</v>
       </c>
       <c r="V41" t="n">
-        <v>3342.532595330514</v>
+        <v>3342.532595330515</v>
       </c>
       <c r="W41" t="n">
-        <v>3037.600452912001</v>
+        <v>3037.600452912002</v>
       </c>
       <c r="X41" t="n">
-        <v>2711.971207502523</v>
+        <v>2711.971207502524</v>
       </c>
       <c r="Y41" t="n">
         <v>2369.668388378313</v>
@@ -7485,28 +7485,28 @@
         <v>90.18189960063228</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J42" t="n">
-        <v>173.7838743058707</v>
+        <v>173.7838743058708</v>
       </c>
       <c r="K42" t="n">
-        <v>410.4333411581483</v>
+        <v>410.4333411581486</v>
       </c>
       <c r="L42" t="n">
-        <v>774.9602948543028</v>
+        <v>774.9602948543034</v>
       </c>
       <c r="M42" t="n">
         <v>1219.702924364351</v>
       </c>
       <c r="N42" t="n">
-        <v>1690.62521282028</v>
+        <v>1690.625212820281</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.207309421935</v>
+        <v>2104.956534737017</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.797396935415</v>
+        <v>2413.546622250497</v>
       </c>
       <c r="Q42" t="n">
         <v>2569.911727066738</v>
@@ -7564,16 +7564,16 @@
         <v>130.7977523828814</v>
       </c>
       <c r="I43" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3635977279487</v>
+        <v>422.363597727949</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124652</v>
       </c>
       <c r="M43" t="n">
         <v>1174.28905163738</v>
@@ -7628,13 +7628,13 @@
         <v>1709.779057076981</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.349871321832</v>
+        <v>1399.349871321831</v>
       </c>
       <c r="E44" t="n">
         <v>1061.398131575189</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2487396371835</v>
+        <v>698.2487396371831</v>
       </c>
       <c r="G44" t="n">
         <v>330.9937334849632</v>
@@ -7646,22 +7646,22 @@
         <v>81.05135709737158</v>
       </c>
       <c r="J44" t="n">
-        <v>435.7498994190368</v>
+        <v>268.3442503986839</v>
       </c>
       <c r="K44" t="n">
-        <v>1059.516111404385</v>
+        <v>920.6902234747652</v>
       </c>
       <c r="L44" t="n">
-        <v>1507.601000519365</v>
+        <v>1368.775112589746</v>
       </c>
       <c r="M44" t="n">
-        <v>2037.851213818928</v>
+        <v>1899.025325889309</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.295238308042</v>
+        <v>2442.469350378423</v>
       </c>
       <c r="O44" t="n">
-        <v>3081.118759127425</v>
+        <v>3081.118759127424</v>
       </c>
       <c r="P44" t="n">
         <v>3473.205569461966</v>
@@ -7676,10 +7676,10 @@
         <v>3989.679167854829</v>
       </c>
       <c r="T44" t="n">
-        <v>3831.454459204951</v>
+        <v>3831.45445920495</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822482</v>
       </c>
       <c r="V44" t="n">
         <v>3342.532595330513</v>
@@ -7713,37 +7713,37 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F45" t="n">
-        <v>317.1556337907959</v>
+        <v>317.1556337907958</v>
       </c>
       <c r="G45" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H45" t="n">
-        <v>90.18189960063228</v>
+        <v>90.18189960063225</v>
       </c>
       <c r="I45" t="n">
         <v>81.05135709737158</v>
       </c>
       <c r="J45" t="n">
-        <v>173.7838743058707</v>
+        <v>173.7838743058708</v>
       </c>
       <c r="K45" t="n">
-        <v>416.1825664732305</v>
+        <v>410.4333411581486</v>
       </c>
       <c r="L45" t="n">
-        <v>780.709520169385</v>
+        <v>774.9602948543034</v>
       </c>
       <c r="M45" t="n">
-        <v>1225.452149679433</v>
+        <v>1219.702924364351</v>
       </c>
       <c r="N45" t="n">
-        <v>1696.374438135362</v>
+        <v>1690.625212820281</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.956534737017</v>
+        <v>2099.207309421937</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.546622250497</v>
+        <v>2407.797396935417</v>
       </c>
       <c r="Q45" t="n">
         <v>2569.911727066738</v>
@@ -7804,13 +7804,13 @@
         <v>81.05135709737158</v>
       </c>
       <c r="J46" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3635977279488</v>
+        <v>422.363597727949</v>
       </c>
       <c r="L46" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124658</v>
       </c>
       <c r="M46" t="n">
         <v>1174.28905163738</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8623,7 +8623,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>5.80729829806296</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.807298298061312</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.3041717040524</v>
       </c>
       <c r="Q14" t="n">
-        <v>119.4737497927959</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.807298298061369</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.807298298062705</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>241.0852729970285</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>78.60207870464706</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.80729829806279</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>5.807298298061227</v>
       </c>
       <c r="R18" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>144.3184985776256</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>231.3041717040559</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>5.80729829806296</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.807298298061255</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>295.2769670249712</v>
+        <v>37.45939889601891</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.807298298062705</v>
+        <v>5.807298298060772</v>
       </c>
       <c r="R24" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>324.7437781794787</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>36.84797432678795</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>5.807298298061085</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.807298298062705</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>332.2844312548248</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>210.6729080505844</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>5.807298298061085</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.807298298062705</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>96.4608719872837</v>
+        <v>96.46087198728165</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>5.807298298061085</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.80729829806279</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>142.5748740255609</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>185.7932495133893</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.80729829806117</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>5.807298298062847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>142.57487402556</v>
       </c>
       <c r="K38" t="n">
-        <v>295.2769670249697</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.807298298062705</v>
+        <v>5.807298298061738</v>
       </c>
       <c r="R39" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377856</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>208.2912938985438</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>39.1946787264686</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>5.807298298061085</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.807298298062705</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>295.2769670249701</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>140.2281696258766</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.807298298062818</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.807298298060772</v>
       </c>
       <c r="R45" t="n">
-        <v>0.770039688137814</v>
+        <v>0.7700396881377571</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20.95271190982594</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6179478666979</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0006092864651</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>40.06828549649359</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.5022343836463</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.60707905574013</v>
+        <v>96.60707905574012</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31290891630836</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9166010944994</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>95.49991869980013</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>330.3933727380582</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0345639341811</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>292.8950604671987</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.6866576145113</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>325.8462185905325</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>177.9259403023349</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.7094331386099</v>
+        <v>146.70943313861</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>144.5279227669668</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.1282364722461</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.70103917613775</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>87.40686903670594</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.6790912477076</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>184.3775263873775</v>
+        <v>44.41155627247326</v>
       </c>
       <c r="V16" t="n">
-        <v>250.2316034442256</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>284.6169584569886</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>223.8036155094348</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>62.69973669402759</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.4399365504166326</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>62.69973669402972</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>62.69973669402779</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.44151556162487</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.441515561624</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976363.0825586178</v>
+        <v>976363.0825586179</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1072784.34314358</v>
+        <v>1072784.343143579</v>
       </c>
     </row>
     <row r="7">
@@ -26320,25 +26320,25 @@
         <v>266620.5766897136</v>
       </c>
       <c r="E2" t="n">
-        <v>220961.5226765301</v>
+        <v>220961.5226765302</v>
       </c>
       <c r="F2" t="n">
-        <v>239257.3805053169</v>
+        <v>239257.3805053166</v>
       </c>
       <c r="G2" t="n">
-        <v>265216.5330176177</v>
+        <v>265216.5330176175</v>
       </c>
       <c r="H2" t="n">
-        <v>265216.5330176178</v>
+        <v>265216.5330176176</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="J2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="K2" t="n">
-        <v>266484.1313845113</v>
+        <v>266484.1313845111</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058921</v>
@@ -26347,13 +26347,13 @@
         <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>266838.5752058922</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1116224.078192298</v>
+        <v>1116224.078192299</v>
       </c>
       <c r="F3" t="n">
-        <v>50617.83679063803</v>
+        <v>50617.8367906377</v>
       </c>
       <c r="G3" t="n">
-        <v>36361.68627478641</v>
+        <v>36361.68627478644</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4296.324644767271</v>
+        <v>4296.324644767361</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452789</v>
+        <v>1769.67414045273</v>
       </c>
       <c r="L3" t="n">
         <v>37886.51817846833</v>
       </c>
       <c r="M3" t="n">
-        <v>204040.9533358573</v>
+        <v>204040.9533358574</v>
       </c>
       <c r="N3" t="n">
-        <v>41965.48448639039</v>
+        <v>41965.48448639015</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>408996.6277656588</v>
       </c>
       <c r="E4" t="n">
-        <v>8149.389647288212</v>
+        <v>8149.389647288189</v>
       </c>
       <c r="F4" t="n">
-        <v>26357.49577542618</v>
+        <v>26357.49577542603</v>
       </c>
       <c r="G4" t="n">
-        <v>72059.33676791639</v>
+        <v>72059.33676791626</v>
       </c>
       <c r="H4" t="n">
-        <v>72059.33676791639</v>
+        <v>72059.33676791623</v>
       </c>
       <c r="I4" t="n">
-        <v>73594.64547194116</v>
+        <v>73594.64547194101</v>
       </c>
       <c r="J4" t="n">
-        <v>73594.64547194113</v>
+        <v>73594.64547194102</v>
       </c>
       <c r="K4" t="n">
-        <v>72408.518619685</v>
+        <v>72408.51861968488</v>
       </c>
       <c r="L4" t="n">
-        <v>73594.64547194113</v>
+        <v>73594.64547194101</v>
       </c>
       <c r="M4" t="n">
-        <v>73594.64547194113</v>
+        <v>73594.64547194104</v>
       </c>
       <c r="N4" t="n">
-        <v>73594.64547194113</v>
+        <v>73594.6454719411</v>
       </c>
       <c r="O4" t="n">
-        <v>73594.64547194113</v>
+        <v>73594.64547194107</v>
       </c>
       <c r="P4" t="n">
-        <v>73594.64547194114</v>
+        <v>73594.64547194104</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>73854.08750402668</v>
+        <v>73854.08750402673</v>
       </c>
       <c r="F5" t="n">
-        <v>84431.72198965568</v>
+        <v>84431.72198965566</v>
       </c>
       <c r="G5" t="n">
-        <v>88252.83524394946</v>
+        <v>88252.83524394943</v>
       </c>
       <c r="H5" t="n">
-        <v>88252.83524394946</v>
+        <v>88252.83524394943</v>
       </c>
       <c r="I5" t="n">
         <v>89235.14404393836</v>
       </c>
       <c r="J5" t="n">
-        <v>89235.14404393834</v>
+        <v>89235.14404393836</v>
       </c>
       <c r="K5" t="n">
         <v>89492.96875839611</v>
       </c>
       <c r="L5" t="n">
-        <v>89235.14404393834</v>
+        <v>89235.14404393836</v>
       </c>
       <c r="M5" t="n">
         <v>89235.14404393834</v>
@@ -26506,7 +26506,7 @@
         <v>89235.14404393834</v>
       </c>
       <c r="O5" t="n">
-        <v>89235.14404393834</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="P5" t="n">
         <v>89235.14404393834</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176759.818253349</v>
+        <v>-176764.2318312171</v>
       </c>
       <c r="C6" t="n">
-        <v>-176759.818253349</v>
+        <v>-176764.2318312172</v>
       </c>
       <c r="D6" t="n">
-        <v>-178557.620745789</v>
+        <v>-178559.2976574519</v>
       </c>
       <c r="E6" t="n">
-        <v>-977266.0326670827</v>
+        <v>-977618.9330711552</v>
       </c>
       <c r="F6" t="n">
-        <v>77850.32594959698</v>
+        <v>77638.16291343891</v>
       </c>
       <c r="G6" t="n">
-        <v>68542.67473096543</v>
+        <v>68530.19748336328</v>
       </c>
       <c r="H6" t="n">
-        <v>104904.3610057519</v>
+        <v>104891.8837581499</v>
       </c>
       <c r="I6" t="n">
-        <v>99712.46104524536</v>
+        <v>99712.46104524545</v>
       </c>
       <c r="J6" t="n">
         <v>104008.7856900127</v>
       </c>
       <c r="K6" t="n">
-        <v>102812.9698659774</v>
+        <v>102810.2433750437</v>
       </c>
       <c r="L6" t="n">
-        <v>66122.26751154434</v>
+        <v>66122.26751154439</v>
       </c>
       <c r="M6" t="n">
         <v>-100032.1676458446</v>
       </c>
       <c r="N6" t="n">
-        <v>62043.30120362228</v>
+        <v>62043.30120362245</v>
       </c>
       <c r="O6" t="n">
-        <v>104008.7856900127</v>
+        <v>104008.7856900126</v>
       </c>
       <c r="P6" t="n">
-        <v>104008.7856900126</v>
+        <v>104008.7856900128</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="G2" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="H2" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I2" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="J2" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K2" t="n">
         <v>45.45210784348301</v>
       </c>
       <c r="L2" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="M2" t="n">
         <v>47.35814772308542</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>825.6468252470856</v>
+        <v>825.6468252470862</v>
       </c>
       <c r="F4" t="n">
-        <v>996.9855689804854</v>
+        <v>996.9855689804849</v>
       </c>
       <c r="G4" t="n">
-        <v>996.9855689804854</v>
+        <v>996.9855689804849</v>
       </c>
       <c r="H4" t="n">
-        <v>996.9855689804854</v>
+        <v>996.9855689804849</v>
       </c>
       <c r="I4" t="n">
         <v>1013.141963717145</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="G2" t="n">
-        <v>45.45210784348302</v>
+        <v>45.45210784348305</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>818.7707795053742</v>
+        <v>818.7707795053748</v>
       </c>
       <c r="F4" t="n">
-        <v>171.3387437333997</v>
+        <v>171.3387437333987</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.15639473665965</v>
+        <v>16.15639473665999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711209</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>818.7707795053741</v>
+        <v>818.7707795053745</v>
       </c>
       <c r="N4" t="n">
-        <v>171.3387437333997</v>
+        <v>171.3387437333987</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45210784348302</v>
+        <v>45.45210784348305</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>818.7707795053742</v>
+        <v>818.7707795053748</v>
       </c>
       <c r="N4" t="n">
-        <v>171.3387437333997</v>
+        <v>171.3387437333987</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>359.2164706817081</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.934278125245373</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>219.0653363392634</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.4969998277444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>163.9118407444349</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="C14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="D14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="E14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="F14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="G14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="H14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="I14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="T14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="U14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="V14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="W14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="X14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="C16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="D16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="E16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="F16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="G16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="H16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="I16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="J16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="K16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="L16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="M16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="N16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="O16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="P16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="R16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="S16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="T16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="U16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="V16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="W16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="X16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.906039879602417</v>
+        <v>1.906039879602373</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="C17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="D17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="E17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="F17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="G17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="H17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="I17" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="T17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="U17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="V17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="W17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="X17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="C19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="D19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="E19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="F19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="G19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="H19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="I19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="J19" t="n">
-        <v>47.3581477230849</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="K19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308464</v>
       </c>
       <c r="L19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="M19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="N19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="O19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="P19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="R19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="S19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="T19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="U19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="V19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="W19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="X19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.35814772308544</v>
+        <v>47.35814772308542</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I20" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="P22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="C23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="D23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="E23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="F23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="G23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="H23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="I23" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="T23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="U23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="V23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="W23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="X23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="C25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="D25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="E25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="F25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="G25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="H25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="I25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="J25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="K25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="L25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="M25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="N25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="O25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="P25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="R25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="S25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="T25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="U25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="V25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="W25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="X25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308537</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I26" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="P28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.35814772308541</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>45.45210784348301</v>
       </c>
       <c r="I29" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="C32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="D32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="E32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="F32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="G32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="H32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="I32" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="T32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="U32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="V32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="W32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="X32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="C34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="D34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="E34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="F34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="G34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="H34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="I34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="J34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="K34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="L34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="M34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="N34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="O34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="P34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="R34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="S34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="T34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="U34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="V34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="W34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="X34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308537</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>47.35814772308542</v>
       </c>
       <c r="I35" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>47.35814772308542</v>
       </c>
       <c r="I38" t="n">
-        <v>42.30473004905195</v>
+        <v>42.30473004905193</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>47.35814772308542</v>
       </c>
       <c r="I41" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30642,10 +30642,10 @@
         <v>47.35814772308542</v>
       </c>
       <c r="K43" t="n">
-        <v>47.3581477230853</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="L43" t="n">
-        <v>47.35814772308542</v>
+        <v>47.35814772308493</v>
       </c>
       <c r="M43" t="n">
         <v>47.35814772308542</v>
@@ -30715,7 +30715,7 @@
         <v>47.35814772308542</v>
       </c>
       <c r="I44" t="n">
-        <v>42.30473004905195</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30882,10 +30882,10 @@
         <v>47.35814772308542</v>
       </c>
       <c r="L46" t="n">
-        <v>47.35814772308532</v>
+        <v>47.35814772308542</v>
       </c>
       <c r="M46" t="n">
-        <v>47.35814772308542</v>
+        <v>47.35814772308487</v>
       </c>
       <c r="N46" t="n">
         <v>47.35814772308542</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H11" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I11" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J11" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K11" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L11" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M11" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N11" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O11" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P11" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R11" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S11" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T11" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H12" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I12" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J12" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K12" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L12" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M12" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N12" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O12" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P12" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R12" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S12" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T12" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H13" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I13" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J13" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K13" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L13" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M13" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N13" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O13" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P13" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q13" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R13" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S13" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T13" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U13" t="n">
         <v>0.1067292549060185</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H14" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I14" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J14" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K14" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L14" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M14" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N14" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O14" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P14" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R14" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S14" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T14" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H15" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I15" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J15" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K15" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L15" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M15" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N15" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O15" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P15" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R15" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S15" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T15" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H16" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I16" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J16" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K16" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L16" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M16" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N16" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O16" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P16" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R16" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S16" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T16" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U16" t="n">
         <v>0.1067292549060185</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H17" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I17" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J17" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K17" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L17" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M17" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N17" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O17" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P17" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R17" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S17" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T17" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H18" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I18" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J18" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K18" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L18" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M18" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N18" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O18" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P18" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R18" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S18" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T18" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H19" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I19" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J19" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K19" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L19" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M19" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N19" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O19" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P19" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R19" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S19" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T19" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U19" t="n">
         <v>0.1067292549060185</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H20" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I20" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J20" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L20" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M20" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N20" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O20" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P20" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R20" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S20" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T20" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H21" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I21" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J21" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K21" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L21" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M21" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N21" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O21" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P21" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R21" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S21" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T21" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H22" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I22" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J22" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K22" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L22" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M22" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N22" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O22" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P22" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R22" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S22" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T22" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U22" t="n">
         <v>0.1067292549060185</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H23" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I23" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J23" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K23" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L23" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M23" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N23" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O23" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P23" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R23" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S23" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T23" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H24" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I24" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J24" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K24" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L24" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M24" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N24" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O24" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P24" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q24" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R24" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S24" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T24" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H25" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I25" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J25" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K25" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L25" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M25" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N25" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O25" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P25" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R25" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S25" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T25" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U25" t="n">
         <v>0.1067292549060185</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H26" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I26" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J26" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K26" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L26" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M26" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N26" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O26" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P26" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q26" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R26" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S26" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T26" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H27" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I27" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J27" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K27" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L27" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M27" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N27" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O27" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P27" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R27" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S27" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T27" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H28" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I28" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J28" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K28" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L28" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M28" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N28" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O28" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P28" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R28" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S28" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T28" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U28" t="n">
         <v>0.1067292549060185</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H29" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I29" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J29" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K29" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L29" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M29" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N29" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O29" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P29" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q29" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R29" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S29" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T29" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H30" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I30" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J30" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K30" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L30" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M30" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N30" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O30" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P30" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q30" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R30" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S30" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T30" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H31" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I31" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J31" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K31" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L31" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M31" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N31" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O31" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P31" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q31" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R31" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S31" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T31" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U31" t="n">
         <v>0.1067292549060185</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H32" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I32" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J32" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K32" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L32" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M32" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N32" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O32" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P32" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R32" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S32" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T32" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H33" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I33" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J33" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K33" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L33" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M33" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N33" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O33" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P33" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R33" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S33" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T33" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H34" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I34" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J34" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K34" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L34" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M34" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N34" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O34" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P34" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R34" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S34" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T34" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U34" t="n">
         <v>0.1067292549060185</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H35" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I35" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J35" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K35" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L35" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M35" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N35" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O35" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P35" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q35" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R35" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S35" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T35" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H36" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I36" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J36" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K36" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L36" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M36" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N36" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O36" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P36" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q36" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R36" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S36" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T36" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H37" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I37" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J37" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K37" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L37" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M37" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N37" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O37" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P37" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q37" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R37" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S37" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T37" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U37" t="n">
         <v>0.1067292549060185</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351503</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67370176896608</v>
+        <v>44.67370176896609</v>
       </c>
       <c r="I38" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J38" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K38" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132917</v>
       </c>
       <c r="L38" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760279</v>
       </c>
       <c r="M38" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874377</v>
       </c>
       <c r="N38" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664028</v>
       </c>
       <c r="O38" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735886</v>
       </c>
       <c r="P38" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214733</v>
       </c>
       <c r="Q38" t="n">
         <v>471.0613657418224</v>
       </c>
       <c r="R38" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175216</v>
       </c>
       <c r="S38" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954748</v>
       </c>
       <c r="T38" t="n">
         <v>19.09524027766621</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081202</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H39" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I39" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318699</v>
       </c>
       <c r="J39" t="n">
         <v>220.506835968181</v>
       </c>
       <c r="K39" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817102</v>
       </c>
       <c r="L39" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174041</v>
       </c>
       <c r="M39" t="n">
-        <v>591.3690132250969</v>
+        <v>591.369013225097</v>
       </c>
       <c r="N39" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317471</v>
       </c>
       <c r="O39" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309648</v>
       </c>
       <c r="P39" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188554</v>
       </c>
       <c r="Q39" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R39" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S39" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381486</v>
       </c>
       <c r="T39" t="n">
-        <v>9.407445441472458</v>
+        <v>9.40744544147246</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,16 +34047,16 @@
         <v>17.39686854968101</v>
       </c>
       <c r="I40" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151817</v>
       </c>
       <c r="J40" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K40" t="n">
         <v>227.3333129498191</v>
       </c>
       <c r="L40" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555042</v>
       </c>
       <c r="M40" t="n">
         <v>306.7220903907458</v>
@@ -34065,22 +34065,22 @@
         <v>299.4289246388348</v>
       </c>
       <c r="O40" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P40" t="n">
         <v>236.6543345449447</v>
       </c>
       <c r="Q40" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R40" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086115</v>
       </c>
       <c r="S40" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247287</v>
       </c>
       <c r="T40" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971439</v>
       </c>
       <c r="U40" t="n">
         <v>0.1067292549060185</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I41" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J41" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K41" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L41" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M41" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N41" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O41" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P41" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q41" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R41" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S41" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T41" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H42" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I42" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J42" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K42" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L42" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M42" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N42" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O42" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P42" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q42" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R42" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S42" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T42" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H43" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I43" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J43" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K43" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L43" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M43" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N43" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O43" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P43" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R43" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S43" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T43" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U43" t="n">
         <v>0.1067292549060185</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.362133701351502</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H44" t="n">
-        <v>44.67370176896608</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I44" t="n">
         <v>168.171159521354</v>
       </c>
       <c r="J44" t="n">
-        <v>370.2306452350824</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K44" t="n">
-        <v>554.8797648132916</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L44" t="n">
-        <v>688.3774140760278</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M44" t="n">
-        <v>765.9525092874376</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N44" t="n">
-        <v>778.3464216664025</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O44" t="n">
-        <v>734.9704546735885</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P44" t="n">
-        <v>627.2802789214732</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q44" t="n">
-        <v>471.0613657418224</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R44" t="n">
-        <v>274.0128811175215</v>
+        <v>274.0128811175217</v>
       </c>
       <c r="S44" t="n">
-        <v>99.40212171954745</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T44" t="n">
-        <v>19.09524027766621</v>
+        <v>19.09524027766622</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3489706961081201</v>
+        <v>0.3489706961081203</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.333947291246704</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H45" t="n">
         <v>22.54101726019844</v>
       </c>
       <c r="I45" t="n">
-        <v>80.35739577318698</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J45" t="n">
-        <v>220.506835968181</v>
+        <v>220.5068359681811</v>
       </c>
       <c r="K45" t="n">
-        <v>376.8813044817101</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L45" t="n">
-        <v>506.7634239174039</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M45" t="n">
-        <v>591.3690132250969</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N45" t="n">
-        <v>607.020791331747</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O45" t="n">
-        <v>555.3054329309647</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P45" t="n">
-        <v>445.6815665188553</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.9263244054565</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R45" t="n">
-        <v>144.9094642758261</v>
+        <v>144.9094642758262</v>
       </c>
       <c r="S45" t="n">
-        <v>43.35204727381485</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T45" t="n">
-        <v>9.407445441472458</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1535491638978095</v>
+        <v>0.1535491638978096</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.956703006610337</v>
+        <v>1.956703006610338</v>
       </c>
       <c r="H46" t="n">
-        <v>17.39686854968101</v>
+        <v>17.39686854968102</v>
       </c>
       <c r="I46" t="n">
-        <v>58.84339587151815</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J46" t="n">
-        <v>138.3389025673508</v>
+        <v>138.3389025673509</v>
       </c>
       <c r="K46" t="n">
-        <v>227.3333129498191</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L46" t="n">
-        <v>290.9083724555041</v>
+        <v>290.9083724555043</v>
       </c>
       <c r="M46" t="n">
-        <v>306.7220903907458</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N46" t="n">
-        <v>299.4289246388348</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O46" t="n">
-        <v>276.5710758797957</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P46" t="n">
-        <v>236.6543345449447</v>
+        <v>236.6543345449448</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.8471944898892</v>
+        <v>163.8471944898893</v>
       </c>
       <c r="R46" t="n">
-        <v>87.98048246086113</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S46" t="n">
-        <v>34.09999694247286</v>
+        <v>34.09999694247288</v>
       </c>
       <c r="T46" t="n">
-        <v>8.360458300971437</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U46" t="n">
         <v>0.1067292549060185</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35343,7 +35343,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.1847407083961</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K11" t="n">
-        <v>334.789913768311</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L11" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M11" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N11" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0472831662036</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.7556758673729</v>
+        <v>248.7556758673731</v>
       </c>
       <c r="R11" t="n">
-        <v>58.42734330338942</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K12" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L12" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0422776011415</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N12" t="n">
-        <v>475.6790792484137</v>
+        <v>481.4863775464752</v>
       </c>
       <c r="O12" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P12" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.944550319435</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.97972245067805</v>
+        <v>44.97972245067811</v>
       </c>
       <c r="K13" t="n">
         <v>205.0638211239363</v>
       </c>
       <c r="L13" t="n">
-        <v>318.4983977158203</v>
+        <v>318.4983977158204</v>
       </c>
       <c r="M13" t="n">
-        <v>346.3059673525864</v>
+        <v>346.3059673525865</v>
       </c>
       <c r="N13" t="n">
-        <v>343.5610970180634</v>
+        <v>343.5610970180635</v>
       </c>
       <c r="O13" t="n">
-        <v>301.1562037938354</v>
+        <v>301.1562037938355</v>
       </c>
       <c r="P13" t="n">
         <v>233.9328938098382</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.68515123819485</v>
+        <v>77.6851512381949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.2813558804699</v>
+        <v>358.28135588047</v>
       </c>
       <c r="K14" t="n">
-        <v>658.9353263394758</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L14" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M14" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N14" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0472831662036</v>
+        <v>627.3514548702564</v>
       </c>
       <c r="Q14" t="n">
-        <v>368.2294256601688</v>
+        <v>461.0706665272778</v>
       </c>
       <c r="R14" t="n">
-        <v>124.1437631763719</v>
+        <v>124.143763176372</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.66920930151429</v>
+        <v>99.47650759957574</v>
       </c>
       <c r="K15" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L15" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M15" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N15" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O15" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P15" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q15" t="n">
-        <v>163.7518486174977</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.88576233028047</v>
+        <v>46.88576233028049</v>
       </c>
       <c r="K16" t="n">
         <v>206.9698610035387</v>
       </c>
       <c r="L16" t="n">
-        <v>320.4044375954227</v>
+        <v>320.4044375954228</v>
       </c>
       <c r="M16" t="n">
-        <v>348.2120072321888</v>
+        <v>348.2120072321889</v>
       </c>
       <c r="N16" t="n">
-        <v>345.4671368976658</v>
+        <v>345.4671368976659</v>
       </c>
       <c r="O16" t="n">
-        <v>303.0622436734378</v>
+        <v>303.0622436734379</v>
       </c>
       <c r="P16" t="n">
         <v>235.8389336894406</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.59119111779727</v>
+        <v>79.59119111779728</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.1847407083961</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K17" t="n">
-        <v>334.789913768311</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L17" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M17" t="n">
-        <v>535.6062760601649</v>
+        <v>776.6915490571936</v>
       </c>
       <c r="N17" t="n">
-        <v>548.9333580698117</v>
+        <v>986.2802824817961</v>
       </c>
       <c r="O17" t="n">
-        <v>583.4743219565488</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P17" t="n">
-        <v>717.8459913376862</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.0706665272776</v>
+        <v>248.7556758673731</v>
       </c>
       <c r="R17" t="n">
-        <v>124.1437631763719</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K18" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L18" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N18" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O18" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P18" t="n">
-        <v>317.5144574025879</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.944550319435</v>
+        <v>163.7518486174963</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33787017376295</v>
+        <v>92.33787017376353</v>
       </c>
       <c r="K19" t="n">
-        <v>252.4219688470217</v>
+        <v>252.421968847021</v>
       </c>
       <c r="L19" t="n">
         <v>365.8565454389058</v>
       </c>
       <c r="M19" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N19" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5143515169208</v>
+        <v>348.514351516921</v>
       </c>
       <c r="P19" t="n">
-        <v>281.2910415329236</v>
+        <v>281.2910415329237</v>
       </c>
       <c r="Q19" t="n">
         <v>125.0432989612803</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.2813558804699</v>
+        <v>333.5032392860218</v>
       </c>
       <c r="K20" t="n">
-        <v>334.789913768311</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L20" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M20" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N20" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P20" t="n">
-        <v>627.3514548702595</v>
+        <v>717.8459913376867</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.0706665272776</v>
+        <v>461.0706665272778</v>
       </c>
       <c r="R20" t="n">
-        <v>124.1437631763719</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>99.47650759957725</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K21" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L21" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M21" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N21" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O21" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P21" t="n">
-        <v>311.7071591045251</v>
+        <v>317.5144574025865</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.944550319435</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K22" t="n">
         <v>252.4219688470217</v>
       </c>
       <c r="L22" t="n">
-        <v>365.8565454389056</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M22" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N22" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O22" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P22" t="n">
         <v>281.2910415329236</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>358.2813558804699</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K23" t="n">
-        <v>334.789913768311</v>
+        <v>658.935326339476</v>
       </c>
       <c r="L23" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M23" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N23" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O23" t="n">
-        <v>504.8722432519018</v>
+        <v>885.6724245146474</v>
       </c>
       <c r="P23" t="n">
-        <v>691.3242501911748</v>
+        <v>433.5066820622229</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.0706665272776</v>
+        <v>248.7556758673731</v>
       </c>
       <c r="R23" t="n">
-        <v>124.1437631763719</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K24" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L24" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M24" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N24" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O24" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P24" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q24" t="n">
-        <v>163.7518486174977</v>
+        <v>163.7518486174959</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K25" t="n">
         <v>252.4219688470217</v>
       </c>
       <c r="L25" t="n">
-        <v>365.8565454389056</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M25" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N25" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O25" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P25" t="n">
         <v>281.2910415329236</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.2813558804699</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K26" t="n">
-        <v>658.9353263394758</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L26" t="n">
-        <v>452.6109991060405</v>
+        <v>870.2722136564913</v>
       </c>
       <c r="M26" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N26" t="n">
-        <v>548.9333580698117</v>
+        <v>873.6771362492906</v>
       </c>
       <c r="O26" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P26" t="n">
-        <v>432.8952574929916</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.0706665272776</v>
+        <v>248.7556758673731</v>
       </c>
       <c r="R26" t="n">
-        <v>58.42734330338942</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K27" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L27" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M27" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N27" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O27" t="n">
-        <v>412.7091884865202</v>
+        <v>418.5164867845816</v>
       </c>
       <c r="P27" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q27" t="n">
-        <v>163.7518486174977</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K28" t="n">
         <v>252.4219688470217</v>
       </c>
       <c r="L28" t="n">
-        <v>365.8565454389057</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M28" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N28" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O28" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P28" t="n">
         <v>281.2910415329236</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.1847407083961</v>
+        <v>358.28135588047</v>
       </c>
       <c r="K29" t="n">
-        <v>334.789913768311</v>
+        <v>658.935326339476</v>
       </c>
       <c r="L29" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M29" t="n">
-        <v>867.8907073149896</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N29" t="n">
-        <v>986.2802824817958</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O29" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0472831662036</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.7556758673729</v>
+        <v>459.4285839179575</v>
       </c>
       <c r="R29" t="n">
-        <v>58.42734330338942</v>
+        <v>124.143763176372</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K30" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L30" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M30" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N30" t="n">
-        <v>475.6790792484137</v>
+        <v>481.486377546475</v>
       </c>
       <c r="O30" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P30" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q30" t="n">
-        <v>163.7518486174977</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.43183029416106</v>
+        <v>90.43183029416112</v>
       </c>
       <c r="K31" t="n">
-        <v>250.5159289674193</v>
+        <v>250.5159289674194</v>
       </c>
       <c r="L31" t="n">
-        <v>363.9505055593033</v>
+        <v>363.9505055593034</v>
       </c>
       <c r="M31" t="n">
-        <v>391.7580751960694</v>
+        <v>391.7580751960695</v>
       </c>
       <c r="N31" t="n">
-        <v>389.0132048615463</v>
+        <v>389.0132048615465</v>
       </c>
       <c r="O31" t="n">
-        <v>346.6083116373184</v>
+        <v>346.6083116373185</v>
       </c>
       <c r="P31" t="n">
         <v>279.3850016533212</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.1847407083961</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K32" t="n">
-        <v>658.9353263394758</v>
+        <v>658.935326339476</v>
       </c>
       <c r="L32" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M32" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N32" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O32" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P32" t="n">
-        <v>717.8459913376862</v>
+        <v>717.8459913376867</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.2165478546566</v>
+        <v>345.2165478546547</v>
       </c>
       <c r="R32" t="n">
-        <v>58.42734330338942</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K33" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L33" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M33" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6790792484137</v>
+        <v>481.486377546475</v>
       </c>
       <c r="O33" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P33" t="n">
-        <v>317.5144574025879</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.944550319435</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33787017376345</v>
+        <v>92.33787017376348</v>
       </c>
       <c r="K34" t="n">
         <v>252.4219688470217</v>
       </c>
       <c r="L34" t="n">
-        <v>365.8565454389057</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M34" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N34" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O34" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P34" t="n">
-        <v>281.2910415329235</v>
+        <v>281.2910415329236</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.0432989612802</v>
+        <v>125.0432989612803</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.1847407083961</v>
+        <v>358.28135588047</v>
       </c>
       <c r="K35" t="n">
-        <v>334.789913768311</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L35" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M35" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N35" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O35" t="n">
-        <v>647.4471172774627</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P35" t="n">
-        <v>717.8459913376862</v>
+        <v>717.8459913376867</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.0706665272776</v>
+        <v>434.5489253807624</v>
       </c>
       <c r="R35" t="n">
-        <v>124.1437631763719</v>
+        <v>124.143763176372</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.66920930151429</v>
+        <v>99.47650759957554</v>
       </c>
       <c r="K36" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L36" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M36" t="n">
-        <v>455.0422776011414</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O36" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P36" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.944550319435</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.33787017376348</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K37" t="n">
-        <v>252.4219688470217</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L37" t="n">
-        <v>365.8565454389057</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M37" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N37" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O37" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P37" t="n">
-        <v>281.2910415329236</v>
+        <v>281.2910415329237</v>
       </c>
       <c r="Q37" t="n">
         <v>125.0432989612803</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>358.2813558804699</v>
+        <v>331.7596147339562</v>
       </c>
       <c r="K38" t="n">
-        <v>630.0668807932807</v>
+        <v>334.7899137683111</v>
       </c>
       <c r="L38" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060407</v>
       </c>
       <c r="M38" t="n">
-        <v>535.6062760601649</v>
+        <v>535.606276060165</v>
       </c>
       <c r="N38" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O38" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519019</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0472831662036</v>
+        <v>717.8459913376864</v>
       </c>
       <c r="Q38" t="n">
         <v>461.0706665272776</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151431</v>
       </c>
       <c r="K39" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073512</v>
       </c>
       <c r="L39" t="n">
-        <v>368.2090441375298</v>
+        <v>368.2090441375299</v>
       </c>
       <c r="M39" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030787</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484138</v>
       </c>
       <c r="O39" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865204</v>
       </c>
       <c r="P39" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045252</v>
       </c>
       <c r="Q39" t="n">
-        <v>163.7518486174977</v>
+        <v>163.7518486174968</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K40" t="n">
         <v>252.4219688470217</v>
       </c>
       <c r="L40" t="n">
-        <v>365.8565454389057</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M40" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N40" t="n">
         <v>390.9192447411488</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P40" t="n">
         <v>281.2910415329236</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.1847407083961</v>
+        <v>358.28135588047</v>
       </c>
       <c r="K41" t="n">
-        <v>543.0812076668548</v>
+        <v>334.7899137683112</v>
       </c>
       <c r="L41" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M41" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N41" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O41" t="n">
-        <v>504.8722432519018</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P41" t="n">
-        <v>717.8459913376862</v>
+        <v>717.8459913376867</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.0706665272776</v>
+        <v>461.0706665272778</v>
       </c>
       <c r="R41" t="n">
-        <v>58.42734330338942</v>
+        <v>97.62202202985813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K42" t="n">
-        <v>239.0398655073511</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L42" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M42" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N42" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O42" t="n">
-        <v>412.7091884865202</v>
+        <v>418.5164867845816</v>
       </c>
       <c r="P42" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q42" t="n">
-        <v>163.7518486174977</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K43" t="n">
-        <v>252.4219688470216</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L43" t="n">
-        <v>365.8565454389057</v>
+        <v>365.8565454389053</v>
       </c>
       <c r="M43" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N43" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O43" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P43" t="n">
-        <v>281.2910415329236</v>
+        <v>281.2910415329237</v>
       </c>
       <c r="Q43" t="n">
         <v>125.0432989612803</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.2813558804699</v>
+        <v>189.1847407083962</v>
       </c>
       <c r="K44" t="n">
-        <v>630.0668807932811</v>
+        <v>658.935326339476</v>
       </c>
       <c r="L44" t="n">
-        <v>452.6109991060405</v>
+        <v>452.6109991060409</v>
       </c>
       <c r="M44" t="n">
-        <v>535.6062760601649</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N44" t="n">
-        <v>548.9333580698117</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O44" t="n">
-        <v>504.8722432519018</v>
+        <v>645.1004128777787</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0472831662036</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.0706665272776</v>
+        <v>461.0706665272778</v>
       </c>
       <c r="R44" t="n">
-        <v>124.1437631763719</v>
+        <v>124.143763176372</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.66920930151429</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K45" t="n">
-        <v>244.8471638054139</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L45" t="n">
-        <v>368.2090441375298</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M45" t="n">
-        <v>449.2349793030785</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N45" t="n">
-        <v>475.6790792484137</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O45" t="n">
-        <v>412.7091884865202</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P45" t="n">
-        <v>311.7071591045251</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.944550319435</v>
+        <v>163.7518486174959</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K46" t="n">
-        <v>252.4219688470217</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L46" t="n">
-        <v>365.8565454389056</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M46" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756714</v>
       </c>
       <c r="N46" t="n">
-        <v>390.9192447411488</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O46" t="n">
-        <v>348.5143515169208</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P46" t="n">
-        <v>281.2910415329236</v>
+        <v>281.2910415329237</v>
       </c>
       <c r="Q46" t="n">
         <v>125.0432989612803</v>
